--- a/biology/Zoologie/Callitriche_(singe)/Callitriche_(singe).xlsx
+++ b/biology/Zoologie/Callitriche_(singe)/Callitriche_(singe).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callitriche est un nom vernaculaire ambigu en français, pouvant désigner un genre et deux espèces différentes de primates simiiformes. Le terme, d'origine grecque, signifie « beau pelage ».
-Le Callitriche désigne le Singe vert (Chlorocebus sabaeus)[1], un singe de l'ancien monde du groupe des cercopithèques. Il a été décrit comme tel par le comte de Buffon d'après le nom donné par les anciens Grecs à un singe africain au « poil élégant »[2].
-Le Callitriche peut également désigner le Grivet (Chlorocebus aethiops)[1], autre singe du même genre pouvant inclure le précédent en tant que sous-espèce pour certains auteurs. C'est plus probablement le « callithrix » antique notamment cité par Pline l'Ancien)[2].
-Les callitriches, au pluriel, désignent l'ensemble des espèces du genre Callithrix, plus communément appelées ouistitis[3]. Le genre Callithrix a été créé par Erxleben en l'honneur de cette créature mythique.
+Le Callitriche désigne le Singe vert (Chlorocebus sabaeus), un singe de l'ancien monde du groupe des cercopithèques. Il a été décrit comme tel par le comte de Buffon d'après le nom donné par les anciens Grecs à un singe africain au « poil élégant ».
+Le Callitriche peut également désigner le Grivet (Chlorocebus aethiops), autre singe du même genre pouvant inclure le précédent en tant que sous-espèce pour certains auteurs. C'est plus probablement le « callithrix » antique notamment cité par Pline l'Ancien).
+Les callitriches, au pluriel, désignent l'ensemble des espèces du genre Callithrix, plus communément appelées ouistitis. Le genre Callithrix a été créé par Erxleben en l'honneur de cette créature mythique.
 			Chlorocebus sabaeus.
 			Chlorocebus aethiops.
 			Un Ouistiti argenté.
